--- a/biology/Médecine/Stomathérapie/Stomathérapie.xlsx
+++ b/biology/Médecine/Stomathérapie/Stomathérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stomath%C3%A9rapie</t>
+          <t>Stomathérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La stomathérapie ou entérostomathérapie peut se définir comme étant la maîtrise des connaissances techniques et des principes de la relation d’aide, qui doivent permettre au stomisé de retrouver son autonomie le plus rapidement possible après l’intervention, de façon à reprendre une vie familiale, personnelle, professionnelle et sociale normale.
 C’est la recherche du confort et de l’autonomie (garants d’une meilleure qualité de la vie), qui sont les deux fils conducteurs des soins du stomathérapeute et des équipes de soins ayant à prendre en charge un patient stomisé.
